--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H2">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I2">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J2">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4274105</v>
+        <v>0.1949065</v>
       </c>
       <c r="N2">
-        <v>0.8548210000000001</v>
+        <v>0.389813</v>
       </c>
       <c r="O2">
-        <v>0.4422185568930271</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P2">
-        <v>0.3984644485961792</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q2">
-        <v>39.93196693482975</v>
+        <v>13.98363359797625</v>
       </c>
       <c r="R2">
-        <v>159.727867739319</v>
+        <v>55.934534391905</v>
       </c>
       <c r="S2">
-        <v>0.1414417784229314</v>
+        <v>0.09449182194049685</v>
       </c>
       <c r="T2">
-        <v>0.09965838148244727</v>
+        <v>0.07674817114948448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H3">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I3">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J3">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.326844</v>
+        <v>0.457463</v>
       </c>
       <c r="N3">
-        <v>0.6536879999999999</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O3">
-        <v>0.3381678316493033</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P3">
-        <v>0.3047087384071509</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q3">
-        <v>30.536273210058</v>
+        <v>32.82083961607749</v>
       </c>
       <c r="R3">
-        <v>122.145092840232</v>
+        <v>131.28335846431</v>
       </c>
       <c r="S3">
-        <v>0.1081615838330237</v>
+        <v>0.2217807632909395</v>
       </c>
       <c r="T3">
-        <v>0.0762095082765842</v>
+        <v>0.1801348267941634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.42766950000001</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H4">
-        <v>186.855339</v>
+        <v>313.118858</v>
       </c>
       <c r="I4">
-        <v>0.319845868560297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J4">
-        <v>0.2501060805639032</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2122596666666667</v>
+        <v>0.1949065</v>
       </c>
       <c r="N4">
-        <v>0.636779</v>
+        <v>0.389813</v>
       </c>
       <c r="O4">
-        <v>0.2196136114576696</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P4">
-        <v>0.2968268129966699</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q4">
-        <v>19.8309259855135</v>
+        <v>20.34296689892567</v>
       </c>
       <c r="R4">
-        <v>118.985555913081</v>
+        <v>122.057801393554</v>
       </c>
       <c r="S4">
-        <v>0.07024250630434194</v>
+        <v>0.137463842461726</v>
       </c>
       <c r="T4">
-        <v>0.07423819080487176</v>
+        <v>0.1674763745389823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>313.118858</v>
       </c>
       <c r="I5">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J5">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4274105</v>
+        <v>0.457463</v>
       </c>
       <c r="N5">
-        <v>0.8548210000000001</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O5">
-        <v>0.4422185568930271</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P5">
-        <v>0.3984644485961792</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q5">
-        <v>44.61009588573634</v>
+        <v>47.74676404575133</v>
       </c>
       <c r="R5">
-        <v>267.660575314418</v>
+        <v>286.480584274508</v>
       </c>
       <c r="S5">
-        <v>0.1580120335167492</v>
+        <v>0.3226399415312909</v>
       </c>
       <c r="T5">
-        <v>0.1670004120134466</v>
+        <v>0.3930820404949371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>104.3729526666667</v>
+        <v>0.14495</v>
       </c>
       <c r="H6">
-        <v>313.118858</v>
+        <v>0.43485</v>
       </c>
       <c r="I6">
-        <v>0.3573166052255297</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J6">
-        <v>0.4191099421838054</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.326844</v>
+        <v>0.1949065</v>
       </c>
       <c r="N6">
-        <v>0.6536879999999999</v>
+        <v>0.389813</v>
       </c>
       <c r="O6">
-        <v>0.3381678316493033</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P6">
-        <v>0.3047087384071509</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q6">
-        <v>34.11367334138399</v>
+        <v>0.028251697175</v>
       </c>
       <c r="R6">
-        <v>204.682040048304</v>
+        <v>0.16951018305</v>
       </c>
       <c r="S6">
-        <v>0.1208329816014075</v>
+        <v>0.0001909056269440071</v>
       </c>
       <c r="T6">
-        <v>0.1277064617367213</v>
+        <v>0.0002325861237916129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>104.3729526666667</v>
+        <v>0.14495</v>
       </c>
       <c r="H7">
-        <v>313.118858</v>
+        <v>0.43485</v>
       </c>
       <c r="I7">
-        <v>0.3573166052255297</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J7">
-        <v>0.4191099421838054</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2122596666666667</v>
+        <v>0.457463</v>
       </c>
       <c r="N7">
-        <v>0.636779</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O7">
-        <v>0.2196136114576696</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P7">
-        <v>0.2968268129966699</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q7">
-        <v>22.15416814204244</v>
+        <v>0.06630926185</v>
       </c>
       <c r="R7">
-        <v>199.387513278382</v>
+        <v>0.3978555711</v>
       </c>
       <c r="S7">
-        <v>0.07847159010737301</v>
+        <v>0.000448072592851887</v>
       </c>
       <c r="T7">
-        <v>0.1244030684336375</v>
+        <v>0.0005459004494364353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05691833333333333</v>
+        <v>50.2104705</v>
       </c>
       <c r="H8">
-        <v>0.170755</v>
+        <v>100.420941</v>
       </c>
       <c r="I8">
-        <v>0.00019485762472117</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J8">
-        <v>0.0002285557587770574</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.4274105</v>
+        <v>0.1949065</v>
       </c>
       <c r="N8">
-        <v>0.8548210000000001</v>
+        <v>0.389813</v>
       </c>
       <c r="O8">
-        <v>0.4422185568930271</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P8">
-        <v>0.3984644485961792</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q8">
-        <v>0.02432749330916667</v>
+        <v>9.786347068508251</v>
       </c>
       <c r="R8">
-        <v>0.145964959855</v>
+        <v>39.145388274033</v>
       </c>
       <c r="S8">
-        <v>8.616965760379884E-05</v>
+        <v>0.06612943325254278</v>
       </c>
       <c r="T8">
-        <v>9.107134439458153E-05</v>
+        <v>0.05371166474576579</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05691833333333333</v>
+        <v>50.2104705</v>
       </c>
       <c r="H9">
-        <v>0.170755</v>
+        <v>100.420941</v>
       </c>
       <c r="I9">
-        <v>0.00019485762472117</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J9">
-        <v>0.0002285557587770574</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.326844</v>
+        <v>0.457463</v>
       </c>
       <c r="N9">
-        <v>0.6536879999999999</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O9">
-        <v>0.3381678316493033</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P9">
-        <v>0.3047087384071509</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q9">
-        <v>0.01860341574</v>
+        <v>22.9694324663415</v>
       </c>
       <c r="R9">
-        <v>0.11162049444</v>
+        <v>91.87772986536599</v>
       </c>
       <c r="S9">
-        <v>6.589458043229172E-05</v>
+        <v>0.1552116985529368</v>
       </c>
       <c r="T9">
-        <v>6.964293691264628E-05</v>
+        <v>0.1260660844537881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05691833333333333</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H10">
-        <v>0.170755</v>
+        <v>1.016882</v>
       </c>
       <c r="I10">
-        <v>0.00019485762472117</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J10">
-        <v>0.0002285557587770574</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.2122596666666667</v>
+        <v>0.1949065</v>
       </c>
       <c r="N10">
-        <v>0.636779</v>
+        <v>0.389813</v>
       </c>
       <c r="O10">
-        <v>0.2196136114576696</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P10">
-        <v>0.2968268129966699</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q10">
-        <v>0.01208146646055555</v>
+        <v>0.06606563717766667</v>
       </c>
       <c r="R10">
-        <v>0.108733198145</v>
+        <v>0.3963938230660001</v>
       </c>
       <c r="S10">
-        <v>4.279338668507943E-05</v>
+        <v>0.0004464263441142368</v>
       </c>
       <c r="T10">
-        <v>6.784147746982963E-05</v>
+        <v>0.0005438947745969022</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.7744715</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H11">
-        <v>71.54894299999999</v>
+        <v>1.016882</v>
       </c>
       <c r="I11">
-        <v>0.1224724642115052</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J11">
-        <v>0.09576834035349729</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4274105</v>
+        <v>0.457463</v>
       </c>
       <c r="N11">
-        <v>0.8548210000000001</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O11">
-        <v>0.4422185568930271</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P11">
-        <v>0.3984644485961792</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q11">
-        <v>15.29038475105075</v>
+        <v>0.1550619634553333</v>
       </c>
       <c r="R11">
-        <v>61.161539004203</v>
+        <v>0.930371780732</v>
       </c>
       <c r="S11">
-        <v>0.05415959638274476</v>
+        <v>0.001047802585637375</v>
       </c>
       <c r="T11">
-        <v>0.03816027893192751</v>
+        <v>0.001276569715588873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>35.7744715</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H12">
-        <v>71.54894299999999</v>
+        <v>0.101599</v>
       </c>
       <c r="I12">
-        <v>0.1224724642115052</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J12">
-        <v>0.09576834035349729</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.326844</v>
+        <v>0.1949065</v>
       </c>
       <c r="N12">
-        <v>0.6536879999999999</v>
+        <v>0.389813</v>
       </c>
       <c r="O12">
-        <v>0.3381678316493033</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P12">
-        <v>0.3047087384071509</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q12">
-        <v>11.692671362946</v>
+        <v>0.006600768497833334</v>
       </c>
       <c r="R12">
-        <v>46.77068545178399</v>
+        <v>0.03960461098700001</v>
       </c>
       <c r="S12">
-        <v>0.04141624765915162</v>
+        <v>4.460347428281979E-05</v>
       </c>
       <c r="T12">
-        <v>0.0291814501684608</v>
+        <v>5.434176748557912E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>35.7744715</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H13">
-        <v>71.54894299999999</v>
+        <v>0.101599</v>
       </c>
       <c r="I13">
-        <v>0.1224724642115052</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J13">
-        <v>0.09576834035349729</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2122596666666667</v>
+        <v>0.457463</v>
       </c>
       <c r="N13">
-        <v>0.636779</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O13">
-        <v>0.2196136114576696</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P13">
-        <v>0.2968268129966699</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q13">
-        <v>7.593477395766166</v>
+        <v>0.01549259444566667</v>
       </c>
       <c r="R13">
-        <v>45.560864374597</v>
+        <v>0.092955566674</v>
       </c>
       <c r="S13">
-        <v>0.02689662016960886</v>
+        <v>0.0001046883462369987</v>
       </c>
       <c r="T13">
-        <v>0.02842661125310898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>58.20230466666667</v>
-      </c>
-      <c r="H14">
-        <v>174.606914</v>
-      </c>
-      <c r="I14">
-        <v>0.1992532489352207</v>
-      </c>
-      <c r="J14">
-        <v>0.2337115499809108</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.4274105</v>
-      </c>
-      <c r="N14">
-        <v>0.8548210000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.4422185568930271</v>
-      </c>
-      <c r="P14">
-        <v>0.3984644485961792</v>
-      </c>
-      <c r="Q14">
-        <v>24.87627613873234</v>
-      </c>
-      <c r="R14">
-        <v>149.257656832394</v>
-      </c>
-      <c r="S14">
-        <v>0.0881134842003804</v>
-      </c>
-      <c r="T14">
-        <v>0.09312574389370198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>58.20230466666667</v>
-      </c>
-      <c r="H15">
-        <v>174.606914</v>
-      </c>
-      <c r="I15">
-        <v>0.1992532489352207</v>
-      </c>
-      <c r="J15">
-        <v>0.2337115499809108</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.326844</v>
-      </c>
-      <c r="N15">
-        <v>0.6536879999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.3381678316493033</v>
-      </c>
-      <c r="P15">
-        <v>0.3047087384071509</v>
-      </c>
-      <c r="Q15">
-        <v>19.023074066472</v>
-      </c>
-      <c r="R15">
-        <v>114.138444398832</v>
-      </c>
-      <c r="S15">
-        <v>0.06738103914150242</v>
-      </c>
-      <c r="T15">
-        <v>0.07121395154586312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>58.20230466666667</v>
-      </c>
-      <c r="H16">
-        <v>174.606914</v>
-      </c>
-      <c r="I16">
-        <v>0.1992532489352207</v>
-      </c>
-      <c r="J16">
-        <v>0.2337115499809108</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2122596666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.636779</v>
-      </c>
-      <c r="O16">
-        <v>0.2196136114576696</v>
-      </c>
-      <c r="P16">
-        <v>0.2968268129966699</v>
-      </c>
-      <c r="Q16">
-        <v>12.35400178777844</v>
-      </c>
-      <c r="R16">
-        <v>111.186016090006</v>
-      </c>
-      <c r="S16">
-        <v>0.04375872559333788</v>
-      </c>
-      <c r="T16">
-        <v>0.06937185454134567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.2678446666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.803534</v>
-      </c>
-      <c r="I17">
-        <v>0.0009169554427261318</v>
-      </c>
-      <c r="J17">
-        <v>0.001075531159106112</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.4274105</v>
-      </c>
-      <c r="N17">
-        <v>0.8548210000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.4422185568930271</v>
-      </c>
-      <c r="P17">
-        <v>0.3984644485961792</v>
-      </c>
-      <c r="Q17">
-        <v>0.1144796229023334</v>
-      </c>
-      <c r="R17">
-        <v>0.686877737414</v>
-      </c>
-      <c r="S17">
-        <v>0.0004054947126175568</v>
-      </c>
-      <c r="T17">
-        <v>0.0004285609302612262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.2678446666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.803534</v>
-      </c>
-      <c r="I18">
-        <v>0.0009169554427261318</v>
-      </c>
-      <c r="J18">
-        <v>0.001075531159106112</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.326844</v>
-      </c>
-      <c r="N18">
-        <v>0.6536879999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.3381678316493033</v>
-      </c>
-      <c r="P18">
-        <v>0.3047087384071509</v>
-      </c>
-      <c r="Q18">
-        <v>0.087543422232</v>
-      </c>
-      <c r="R18">
-        <v>0.525260533392</v>
-      </c>
-      <c r="S18">
-        <v>0.0003100848337857229</v>
-      </c>
-      <c r="T18">
-        <v>0.000327723742608804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.2678446666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.803534</v>
-      </c>
-      <c r="I19">
-        <v>0.0009169554427261318</v>
-      </c>
-      <c r="J19">
-        <v>0.001075531159106112</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.2122596666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.636779</v>
-      </c>
-      <c r="O19">
-        <v>0.2196136114576696</v>
-      </c>
-      <c r="P19">
-        <v>0.2968268129966699</v>
-      </c>
-      <c r="Q19">
-        <v>0.05685261966511111</v>
-      </c>
-      <c r="R19">
-        <v>0.511673576986</v>
-      </c>
-      <c r="S19">
-        <v>0.0002013758963228521</v>
-      </c>
-      <c r="T19">
-        <v>0.0003192464862360814</v>
+        <v>0.0001275449919795157</v>
       </c>
     </row>
   </sheetData>
